--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreic/Github/neatmaps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485847EB-EB87-F04D-B353-6A7FDC1AF084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CF146D-1C8E-BC4F-B23B-37BC3B7954EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{FF480143-7C1B-9445-A635-3DEAAB5D1AA0}"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{FF480143-7C1B-9445-A635-3DEAAB5D1AA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Reads" sheetId="2" r:id="rId1"/>
     <sheet name="Inserts" sheetId="3" r:id="rId2"/>
+    <sheet name="RAW" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="117">
   <si>
     <t>HashMap</t>
   </si>
@@ -110,6 +111,282 @@
   </si>
   <si>
     <t>size=10000000</t>
+  </si>
+  <si>
+    <t>Benchmark                                                                             (input)          (mapClass)  Mode  Cnt    Score    Error   Units</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                                          KEYS_STRING_1_000_000             HashMap  avgt   30    0.278 ±  0.025   us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.alloc.rate                           KEYS_STRING_1_000_000             HashMap  avgt   30  177.350 ± 14.787  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.alloc.rate.norm                      KEYS_STRING_1_000_000             HashMap  avgt   30   56.000 ±  0.001    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.count                                KEYS_STRING_1_000_000             HashMap  avgt   30      ≈ 0           counts</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                                          KEYS_STRING_1_000_000         OACkooSAMap  avgt   30    0.348 ±  0.027   us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.alloc.rate                           KEYS_STRING_1_000_000         OACkooSAMap  avgt   30  141.406 ± 12.019  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.alloc.rate.norm                      KEYS_STRING_1_000_000         OACkooSAMap  avgt   30   56.000 ±  0.001    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.churn.G1_Eden_Space                  KEYS_STRING_1_000_000         OACkooSAMap  avgt   30   23.567 ± 31.004  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.churn.G1_Eden_Space.norm             KEYS_STRING_1_000_000         OACkooSAMap  avgt   30    9.775 ± 12.637    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.churn.G1_Old_Gen                     KEYS_STRING_1_000_000         OACkooSAMap  avgt   30    0.169 ±  0.208  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.churn.G1_Old_Gen.norm                KEYS_STRING_1_000_000         OACkooSAMap  avgt   30    0.071 ±  0.088    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.count                                KEYS_STRING_1_000_000         OACkooSAMap  avgt   30   12.000           counts</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.time                                 KEYS_STRING_1_000_000         OACkooSAMap  avgt   30    6.000               ms</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                                          KEYS_STRING_1_000_000  OALinearProbingMap  avgt   30    0.249 ±  0.005   us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.alloc.rate                           KEYS_STRING_1_000_000  OALinearProbingMap  avgt   30  194.682 ±  4.254  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.alloc.rate.norm                      KEYS_STRING_1_000_000  OALinearProbingMap  avgt   30   56.000 ±  0.001    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.count                                KEYS_STRING_1_000_000  OALinearProbingMap  avgt   30      ≈ 0           counts</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                                          KEYS_STRING_1_000_000      OARobinHoodMap  avgt   30    0.264 ±  0.008   us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.alloc.rate                           KEYS_STRING_1_000_000      OARobinHoodMap  avgt   30  184.408 ±  4.997  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.alloc.rate.norm                      KEYS_STRING_1_000_000      OARobinHoodMap  avgt   30   56.000 ±  0.001    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.count                                KEYS_STRING_1_000_000      OARobinHoodMap  avgt   30      ≈ 0           counts</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                                          KEYS_STRING_1_000_000      OAPYPerturbMap  avgt   30    0.315 ±  0.017   us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.alloc.rate                           KEYS_STRING_1_000_000      OAPYPerturbMap  avgt   30  168.229 ±  5.612  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.alloc.rate.norm                      KEYS_STRING_1_000_000      OAPYPerturbMap  avgt   30   61.333 ±  5.125    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.count                                KEYS_STRING_1_000_000      OAPYPerturbMap  avgt   30      ≈ 0           counts</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                                         KEYS_STRING_10_000_000             HashMap  avgt   30    0.399 ±  0.022   us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.alloc.rate                          KEYS_STRING_10_000_000             HashMap  avgt   30  133.093 ±  7.553  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.alloc.rate.norm                     KEYS_STRING_10_000_000             HashMap  avgt   30   61.333 ±  5.125    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.count                               KEYS_STRING_10_000_000             HashMap  avgt   30      ≈ 0           counts</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                                         KEYS_STRING_10_000_000         OACkooSAMap  avgt   30    0.500 ±  0.016   us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.alloc.rate                          KEYS_STRING_10_000_000         OACkooSAMap  avgt   30  106.391 ±  7.951  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.alloc.rate.norm                     KEYS_STRING_10_000_000         OACkooSAMap  avgt   30   61.333 ±  5.125    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.count                               KEYS_STRING_10_000_000         OACkooSAMap  avgt   30      ≈ 0           counts</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                                         KEYS_STRING_10_000_000  OALinearProbingMap  avgt   30    0.362 ±  0.010   us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.alloc.rate                          KEYS_STRING_10_000_000  OALinearProbingMap  avgt   30  134.396 ±  3.680  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.alloc.rate.norm                     KEYS_STRING_10_000_000  OALinearProbingMap  avgt   30   56.000 ±  0.001    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.count                               KEYS_STRING_10_000_000  OALinearProbingMap  avgt   30      ≈ 0           counts</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                                         KEYS_STRING_10_000_000      OARobinHoodMap  avgt   30    0.361 ±  0.006   us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.alloc.rate                          KEYS_STRING_10_000_000      OARobinHoodMap  avgt   30  134.601 ±  2.291  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.alloc.rate.norm                     KEYS_STRING_10_000_000      OARobinHoodMap  avgt   30   56.000 ±  0.001    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.count                               KEYS_STRING_10_000_000      OARobinHoodMap  avgt   30      ≈ 0           counts</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                                         KEYS_STRING_10_000_000      OAPYPerturbMap  avgt   30    0.433 ±  0.011   us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.alloc.rate                          KEYS_STRING_10_000_000      OAPYPerturbMap  avgt   30  112.262 ±  2.721  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.alloc.rate.norm                     KEYS_STRING_10_000_000      OAPYPerturbMap  avgt   30   56.000 ±  0.001    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads:·gc.count                               KEYS_STRING_10_000_000      OAPYPerturbMap  avgt   30      ≈ 0           counts</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses                                KEYS_STRING_1_000_000             HashMap  avgt   30    0.259 ±  0.006   us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate                 KEYS_STRING_1_000_000             HashMap  avgt   30  187.361 ±  3.644  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate.norm            KEYS_STRING_1_000_000             HashMap  avgt   30   56.000 ±  0.001    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.count                      KEYS_STRING_1_000_000             HashMap  avgt   30      ≈ 0           counts</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses                                KEYS_STRING_1_000_000         OACkooSAMap  avgt   30    0.371 ±  0.004   us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate                 KEYS_STRING_1_000_000         OACkooSAMap  avgt   30  130.916 ±  1.326  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate.norm            KEYS_STRING_1_000_000         OACkooSAMap  avgt   30   56.000 ±  0.001    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.churn.G1_Eden_Space        KEYS_STRING_1_000_000         OACkooSAMap  avgt   30   27.455 ± 30.058  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.churn.G1_Eden_Space.norm   KEYS_STRING_1_000_000         OACkooSAMap  avgt   30   11.683 ± 12.778    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.churn.G1_Old_Gen           KEYS_STRING_1_000_000         OACkooSAMap  avgt   30    0.217 ±  0.225  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.churn.G1_Old_Gen.norm      KEYS_STRING_1_000_000         OACkooSAMap  avgt   30    0.092 ±  0.096    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.count                      KEYS_STRING_1_000_000         OACkooSAMap  avgt   30   15.000           counts</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.time                       KEYS_STRING_1_000_000         OACkooSAMap  avgt   30    8.000               ms</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses                                KEYS_STRING_1_000_000  OALinearProbingMap  avgt   30    0.279 ±  0.001   us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate                 KEYS_STRING_1_000_000  OALinearProbingMap  avgt   30  173.621 ±  0.782  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate.norm            KEYS_STRING_1_000_000  OALinearProbingMap  avgt   30   56.000 ±  0.001    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.count                      KEYS_STRING_1_000_000  OALinearProbingMap  avgt   30      ≈ 0           counts</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses                                KEYS_STRING_1_000_000      OARobinHoodMap  avgt   30    0.280 ±  0.003   us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate                 KEYS_STRING_1_000_000      OARobinHoodMap  avgt   30  173.242 ±  2.138  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate.norm            KEYS_STRING_1_000_000      OARobinHoodMap  avgt   30   56.000 ±  0.001    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.count                      KEYS_STRING_1_000_000      OARobinHoodMap  avgt   30      ≈ 0           counts</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses                                KEYS_STRING_1_000_000      OAPYPerturbMap  avgt   30    0.337 ±  0.013   us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate                 KEYS_STRING_1_000_000      OAPYPerturbMap  avgt   30  144.235 ±  4.561  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate.norm            KEYS_STRING_1_000_000      OAPYPerturbMap  avgt   30   56.000 ±  0.001    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.count                      KEYS_STRING_1_000_000      OAPYPerturbMap  avgt   30      ≈ 0           counts</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses                               KEYS_STRING_10_000_000             HashMap  avgt   30    0.346 ±  0.005   us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate                KEYS_STRING_10_000_000             HashMap  avgt   30  140.209 ±  1.873  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate.norm           KEYS_STRING_10_000_000             HashMap  avgt   30   56.000 ±  0.001    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.count                     KEYS_STRING_10_000_000             HashMap  avgt   30      ≈ 0           counts</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses                               KEYS_STRING_10_000_000         OACkooSAMap  avgt   30    0.496 ±  0.010   us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate                KEYS_STRING_10_000_000         OACkooSAMap  avgt   30   97.838 ±  1.924  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate.norm           KEYS_STRING_10_000_000         OACkooSAMap  avgt   30   56.000 ±  0.001    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.count                     KEYS_STRING_10_000_000         OACkooSAMap  avgt   30      ≈ 0           counts</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses                               KEYS_STRING_10_000_000  OALinearProbingMap  avgt   30    0.384 ±  0.018   us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate                KEYS_STRING_10_000_000  OALinearProbingMap  avgt   30  126.753 ±  4.990  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate.norm           KEYS_STRING_10_000_000  OALinearProbingMap  avgt   30   56.000 ±  0.001    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.count                     KEYS_STRING_10_000_000  OALinearProbingMap  avgt   30      ≈ 0           counts</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses                               KEYS_STRING_10_000_000      OARobinHoodMap  avgt   30    0.404 ±  0.009   us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate                KEYS_STRING_10_000_000      OARobinHoodMap  avgt   30  120.075 ±  2.484  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate.norm           KEYS_STRING_10_000_000      OARobinHoodMap  avgt   30   56.000 ±  0.001    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.count                     KEYS_STRING_10_000_000      OARobinHoodMap  avgt   30      ≈ 0           counts</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses                               KEYS_STRING_10_000_000      OAPYPerturbMap  avgt   30    0.449 ±  0.012   us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate                KEYS_STRING_10_000_000      OAPYPerturbMap  avgt   30  108.180 ±  2.651  MB/sec</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate.norm           KEYS_STRING_10_000_000      OAPYPerturbMap  avgt   30   56.000 ±  0.001    B/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses:·gc.count                     KEYS_STRING_10_000_000      OAPYPerturbMap  avgt   30      ≈ 0           counts</t>
+  </si>
+  <si>
+    <t>Benchmark result is saved to benchmarks.json</t>
   </si>
 </sst>
 </file>
@@ -551,7 +828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F26132-585A-C44C-BEC3-423FE5BFAC48}">
   <dimension ref="B4:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -747,7 +1024,7 @@
   <dimension ref="B3:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -783,14 +1060,20 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="9">
+        <v>16692474401</v>
+      </c>
+      <c r="D5" s="9">
+        <v>169215210716</v>
+      </c>
     </row>
     <row r="6" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="9">
+        <v>16341300148</v>
+      </c>
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="2:4" ht="17" x14ac:dyDescent="0.2">
@@ -799,6 +1082,481 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F085A7C-7432-D04D-A294-8D5C5B7A2B3E}">
+  <dimension ref="B5:B97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,15 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreic/Github/neatmaps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CF146D-1C8E-BC4F-B23B-37BC3B7954EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A241A9D-1191-1446-92E1-9D4CDC617BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{FF480143-7C1B-9445-A635-3DEAAB5D1AA0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35880" windowHeight="21900" activeTab="2" xr2:uid="{FF480143-7C1B-9445-A635-3DEAAB5D1AA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Reads" sheetId="2" r:id="rId1"/>
     <sheet name="Inserts" sheetId="3" r:id="rId2"/>
     <sheet name="RAW" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Reads!$B$17:$B$20</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Reads!$C$17:$C$20</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Reads!$C$4:$C$16</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Reads!$D$17:$D$20</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Reads!$D$4:$D$16</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -113,280 +121,280 @@
     <t>size=10000000</t>
   </si>
   <si>
-    <t>Benchmark                                                                             (input)          (mapClass)  Mode  Cnt    Score    Error   Units</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads                                          KEYS_STRING_1_000_000             HashMap  avgt   30    0.278 ±  0.025   us/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.alloc.rate                           KEYS_STRING_1_000_000             HashMap  avgt   30  177.350 ± 14.787  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.alloc.rate.norm                      KEYS_STRING_1_000_000             HashMap  avgt   30   56.000 ±  0.001    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.count                                KEYS_STRING_1_000_000             HashMap  avgt   30      ≈ 0           counts</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads                                          KEYS_STRING_1_000_000         OACkooSAMap  avgt   30    0.348 ±  0.027   us/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.alloc.rate                           KEYS_STRING_1_000_000         OACkooSAMap  avgt   30  141.406 ± 12.019  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.alloc.rate.norm                      KEYS_STRING_1_000_000         OACkooSAMap  avgt   30   56.000 ±  0.001    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.churn.G1_Eden_Space                  KEYS_STRING_1_000_000         OACkooSAMap  avgt   30   23.567 ± 31.004  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.churn.G1_Eden_Space.norm             KEYS_STRING_1_000_000         OACkooSAMap  avgt   30    9.775 ± 12.637    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.churn.G1_Old_Gen                     KEYS_STRING_1_000_000         OACkooSAMap  avgt   30    0.169 ±  0.208  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.churn.G1_Old_Gen.norm                KEYS_STRING_1_000_000         OACkooSAMap  avgt   30    0.071 ±  0.088    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.count                                KEYS_STRING_1_000_000         OACkooSAMap  avgt   30   12.000           counts</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.time                                 KEYS_STRING_1_000_000         OACkooSAMap  avgt   30    6.000               ms</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads                                          KEYS_STRING_1_000_000  OALinearProbingMap  avgt   30    0.249 ±  0.005   us/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.alloc.rate                           KEYS_STRING_1_000_000  OALinearProbingMap  avgt   30  194.682 ±  4.254  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.alloc.rate.norm                      KEYS_STRING_1_000_000  OALinearProbingMap  avgt   30   56.000 ±  0.001    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.count                                KEYS_STRING_1_000_000  OALinearProbingMap  avgt   30      ≈ 0           counts</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads                                          KEYS_STRING_1_000_000      OARobinHoodMap  avgt   30    0.264 ±  0.008   us/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.alloc.rate                           KEYS_STRING_1_000_000      OARobinHoodMap  avgt   30  184.408 ±  4.997  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.alloc.rate.norm                      KEYS_STRING_1_000_000      OARobinHoodMap  avgt   30   56.000 ±  0.001    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.count                                KEYS_STRING_1_000_000      OARobinHoodMap  avgt   30      ≈ 0           counts</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads                                          KEYS_STRING_1_000_000      OAPYPerturbMap  avgt   30    0.315 ±  0.017   us/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.alloc.rate                           KEYS_STRING_1_000_000      OAPYPerturbMap  avgt   30  168.229 ±  5.612  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.alloc.rate.norm                      KEYS_STRING_1_000_000      OAPYPerturbMap  avgt   30   61.333 ±  5.125    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.count                                KEYS_STRING_1_000_000      OAPYPerturbMap  avgt   30      ≈ 0           counts</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads                                         KEYS_STRING_10_000_000             HashMap  avgt   30    0.399 ±  0.022   us/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.alloc.rate                          KEYS_STRING_10_000_000             HashMap  avgt   30  133.093 ±  7.553  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.alloc.rate.norm                     KEYS_STRING_10_000_000             HashMap  avgt   30   61.333 ±  5.125    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.count                               KEYS_STRING_10_000_000             HashMap  avgt   30      ≈ 0           counts</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads                                         KEYS_STRING_10_000_000         OACkooSAMap  avgt   30    0.500 ±  0.016   us/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.alloc.rate                          KEYS_STRING_10_000_000         OACkooSAMap  avgt   30  106.391 ±  7.951  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.alloc.rate.norm                     KEYS_STRING_10_000_000         OACkooSAMap  avgt   30   61.333 ±  5.125    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.count                               KEYS_STRING_10_000_000         OACkooSAMap  avgt   30      ≈ 0           counts</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads                                         KEYS_STRING_10_000_000  OALinearProbingMap  avgt   30    0.362 ±  0.010   us/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.alloc.rate                          KEYS_STRING_10_000_000  OALinearProbingMap  avgt   30  134.396 ±  3.680  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.alloc.rate.norm                     KEYS_STRING_10_000_000  OALinearProbingMap  avgt   30   56.000 ±  0.001    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.count                               KEYS_STRING_10_000_000  OALinearProbingMap  avgt   30      ≈ 0           counts</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads                                         KEYS_STRING_10_000_000      OARobinHoodMap  avgt   30    0.361 ±  0.006   us/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.alloc.rate                          KEYS_STRING_10_000_000      OARobinHoodMap  avgt   30  134.601 ±  2.291  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.alloc.rate.norm                     KEYS_STRING_10_000_000      OARobinHoodMap  avgt   30   56.000 ±  0.001    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.count                               KEYS_STRING_10_000_000      OARobinHoodMap  avgt   30      ≈ 0           counts</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads                                         KEYS_STRING_10_000_000      OAPYPerturbMap  avgt   30    0.433 ±  0.011   us/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.alloc.rate                          KEYS_STRING_10_000_000      OAPYPerturbMap  avgt   30  112.262 ±  2.721  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.alloc.rate.norm                     KEYS_STRING_10_000_000      OAPYPerturbMap  avgt   30   56.000 ±  0.001    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReads:·gc.count                               KEYS_STRING_10_000_000      OAPYPerturbMap  avgt   30      ≈ 0           counts</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses                                KEYS_STRING_1_000_000             HashMap  avgt   30    0.259 ±  0.006   us/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate                 KEYS_STRING_1_000_000             HashMap  avgt   30  187.361 ±  3.644  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate.norm            KEYS_STRING_1_000_000             HashMap  avgt   30   56.000 ±  0.001    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.count                      KEYS_STRING_1_000_000             HashMap  avgt   30      ≈ 0           counts</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses                                KEYS_STRING_1_000_000         OACkooSAMap  avgt   30    0.371 ±  0.004   us/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate                 KEYS_STRING_1_000_000         OACkooSAMap  avgt   30  130.916 ±  1.326  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate.norm            KEYS_STRING_1_000_000         OACkooSAMap  avgt   30   56.000 ±  0.001    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.churn.G1_Eden_Space        KEYS_STRING_1_000_000         OACkooSAMap  avgt   30   27.455 ± 30.058  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.churn.G1_Eden_Space.norm   KEYS_STRING_1_000_000         OACkooSAMap  avgt   30   11.683 ± 12.778    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.churn.G1_Old_Gen           KEYS_STRING_1_000_000         OACkooSAMap  avgt   30    0.217 ±  0.225  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.churn.G1_Old_Gen.norm      KEYS_STRING_1_000_000         OACkooSAMap  avgt   30    0.092 ±  0.096    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.count                      KEYS_STRING_1_000_000         OACkooSAMap  avgt   30   15.000           counts</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.time                       KEYS_STRING_1_000_000         OACkooSAMap  avgt   30    8.000               ms</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses                                KEYS_STRING_1_000_000  OALinearProbingMap  avgt   30    0.279 ±  0.001   us/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate                 KEYS_STRING_1_000_000  OALinearProbingMap  avgt   30  173.621 ±  0.782  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate.norm            KEYS_STRING_1_000_000  OALinearProbingMap  avgt   30   56.000 ±  0.001    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.count                      KEYS_STRING_1_000_000  OALinearProbingMap  avgt   30      ≈ 0           counts</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses                                KEYS_STRING_1_000_000      OARobinHoodMap  avgt   30    0.280 ±  0.003   us/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate                 KEYS_STRING_1_000_000      OARobinHoodMap  avgt   30  173.242 ±  2.138  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate.norm            KEYS_STRING_1_000_000      OARobinHoodMap  avgt   30   56.000 ±  0.001    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.count                      KEYS_STRING_1_000_000      OARobinHoodMap  avgt   30      ≈ 0           counts</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses                                KEYS_STRING_1_000_000      OAPYPerturbMap  avgt   30    0.337 ±  0.013   us/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate                 KEYS_STRING_1_000_000      OAPYPerturbMap  avgt   30  144.235 ±  4.561  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate.norm            KEYS_STRING_1_000_000      OAPYPerturbMap  avgt   30   56.000 ±  0.001    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.count                      KEYS_STRING_1_000_000      OAPYPerturbMap  avgt   30      ≈ 0           counts</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses                               KEYS_STRING_10_000_000             HashMap  avgt   30    0.346 ±  0.005   us/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate                KEYS_STRING_10_000_000             HashMap  avgt   30  140.209 ±  1.873  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate.norm           KEYS_STRING_10_000_000             HashMap  avgt   30   56.000 ±  0.001    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.count                     KEYS_STRING_10_000_000             HashMap  avgt   30      ≈ 0           counts</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses                               KEYS_STRING_10_000_000         OACkooSAMap  avgt   30    0.496 ±  0.010   us/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate                KEYS_STRING_10_000_000         OACkooSAMap  avgt   30   97.838 ±  1.924  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate.norm           KEYS_STRING_10_000_000         OACkooSAMap  avgt   30   56.000 ±  0.001    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.count                     KEYS_STRING_10_000_000         OACkooSAMap  avgt   30      ≈ 0           counts</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses                               KEYS_STRING_10_000_000  OALinearProbingMap  avgt   30    0.384 ±  0.018   us/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate                KEYS_STRING_10_000_000  OALinearProbingMap  avgt   30  126.753 ±  4.990  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate.norm           KEYS_STRING_10_000_000  OALinearProbingMap  avgt   30   56.000 ±  0.001    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.count                     KEYS_STRING_10_000_000  OALinearProbingMap  avgt   30      ≈ 0           counts</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses                               KEYS_STRING_10_000_000      OARobinHoodMap  avgt   30    0.404 ±  0.009   us/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate                KEYS_STRING_10_000_000      OARobinHoodMap  avgt   30  120.075 ±  2.484  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate.norm           KEYS_STRING_10_000_000      OARobinHoodMap  avgt   30   56.000 ±  0.001    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.count                     KEYS_STRING_10_000_000      OARobinHoodMap  avgt   30      ≈ 0           counts</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses                               KEYS_STRING_10_000_000      OAPYPerturbMap  avgt   30    0.449 ±  0.012   us/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate                KEYS_STRING_10_000_000      OAPYPerturbMap  avgt   30  108.180 ±  2.651  MB/sec</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.alloc.rate.norm           KEYS_STRING_10_000_000      OAPYPerturbMap  avgt   30   56.000 ±  0.001    B/op</t>
-  </si>
-  <si>
-    <t>RandomStringsReads.randomReadsWithMisses:·gc.count                     KEYS_STRING_10_000_000      OAPYPerturbMap  avgt   30      ≈ 0           counts</t>
-  </si>
-  <si>
     <t>Benchmark result is saved to benchmarks.json</t>
+  </si>
+  <si>
+    <t>Benchmark                                                        (input)               (mapClass)  Mode  Cnt  Score   Error  Units</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads                 SIX_CHARS_ALPHA_1_000       OALinearProbingMap  avgt    8  0.040 ± 0.011  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads                 SIX_CHARS_ALPHA_1_000  OALinearProbingRadarMap  avgt    8  0.043 ± 0.004  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads                 SIX_CHARS_ALPHA_1_000           OARobinHoodMap  avgt    8  0.039 ± 0.001  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads                 SIX_CHARS_ALPHA_1_000           OAPyPerturbMap  avgt    8  0.038 ± 0.002  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads                 SIX_CHARS_ALPHA_1_000                  HashMap  avgt    8  0.033 ± 0.001  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads                SIX_CHARS_ALPHA_10_000       OALinearProbingMap  avgt    8  0.050 ± 0.004  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads                SIX_CHARS_ALPHA_10_000  OALinearProbingRadarMap  avgt    8  0.053 ± 0.004  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads                SIX_CHARS_ALPHA_10_000           OARobinHoodMap  avgt    8  0.053 ± 0.006  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads                SIX_CHARS_ALPHA_10_000           OAPyPerturbMap  avgt    8  0.052 ± 0.005  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads                SIX_CHARS_ALPHA_10_000                  HashMap  avgt    8  0.054 ± 0.003  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads               SIX_CHARS_ALPHA_100_000       OALinearProbingMap  avgt    8  0.143 ± 0.022  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads               SIX_CHARS_ALPHA_100_000  OALinearProbingRadarMap  avgt    8  0.165 ± 0.023  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads               SIX_CHARS_ALPHA_100_000           OARobinHoodMap  avgt    8  0.184 ± 0.056  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads               SIX_CHARS_ALPHA_100_000           OAPyPerturbMap  avgt    8  0.157 ± 0.022  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads               SIX_CHARS_ALPHA_100_000                  HashMap  avgt    8  0.219 ± 0.039  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads             SIX_CHARS_ALPHA_1_000_000       OALinearProbingMap  avgt    8  0.279 ± 0.011  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads             SIX_CHARS_ALPHA_1_000_000  OALinearProbingRadarMap  avgt    8  0.299 ± 0.011  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads             SIX_CHARS_ALPHA_1_000_000           OARobinHoodMap  avgt    8  0.291 ± 0.019  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads             SIX_CHARS_ALPHA_1_000_000           OAPyPerturbMap  avgt    8  0.389 ± 0.086  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads             SIX_CHARS_ALPHA_1_000_000                  HashMap  avgt    8  0.376 ± 0.070  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads            SIX_CHARS_ALPHA_10_000_000       OALinearProbingMap  avgt    8  0.301 ± 0.029  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads            SIX_CHARS_ALPHA_10_000_000  OALinearProbingRadarMap  avgt    8  0.286 ± 0.017  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads            SIX_CHARS_ALPHA_10_000_000           OARobinHoodMap  avgt    8  0.303 ± 0.032  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads            SIX_CHARS_ALPHA_10_000_000           OAPyPerturbMap  avgt    8  0.347 ± 0.034  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReads            SIX_CHARS_ALPHA_10_000_000                  HashMap  avgt    8  0.315 ± 0.011  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses       SIX_CHARS_ALPHA_1_000       OALinearProbingMap  avgt    8  0.047 ± 0.003  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses       SIX_CHARS_ALPHA_1_000  OALinearProbingRadarMap  avgt    8  0.053 ± 0.004  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses       SIX_CHARS_ALPHA_1_000           OARobinHoodMap  avgt    8  0.047 ± 0.004  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses       SIX_CHARS_ALPHA_1_000           OAPyPerturbMap  avgt    8  0.047 ± 0.002  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses       SIX_CHARS_ALPHA_1_000                  HashMap  avgt    8  0.042 ± 0.002  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses      SIX_CHARS_ALPHA_10_000       OALinearProbingMap  avgt    8  0.066 ± 0.018  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses      SIX_CHARS_ALPHA_10_000  OALinearProbingRadarMap  avgt    8  0.074 ± 0.019  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses      SIX_CHARS_ALPHA_10_000           OARobinHoodMap  avgt    8  0.070 ± 0.012  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses      SIX_CHARS_ALPHA_10_000           OAPyPerturbMap  avgt    8  0.070 ± 0.008  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses      SIX_CHARS_ALPHA_10_000                  HashMap  avgt    8  0.066 ± 0.005  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses     SIX_CHARS_ALPHA_100_000       OALinearProbingMap  avgt    8  0.156 ± 0.037  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses     SIX_CHARS_ALPHA_100_000  OALinearProbingRadarMap  avgt    8  0.175 ± 0.021  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses     SIX_CHARS_ALPHA_100_000           OARobinHoodMap  avgt    8  0.161 ± 0.021  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses     SIX_CHARS_ALPHA_100_000           OAPyPerturbMap  avgt    8  0.144 ± 0.014  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses     SIX_CHARS_ALPHA_100_000                  HashMap  avgt    8  0.130 ± 0.031  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses   SIX_CHARS_ALPHA_1_000_000       OALinearProbingMap  avgt    8  0.298 ± 0.016  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses   SIX_CHARS_ALPHA_1_000_000  OALinearProbingRadarMap  avgt    8  0.322 ± 0.015  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses   SIX_CHARS_ALPHA_1_000_000           OARobinHoodMap  avgt    8  0.311 ± 0.028  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses   SIX_CHARS_ALPHA_1_000_000           OAPyPerturbMap  avgt    8  0.350 ± 0.028  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses   SIX_CHARS_ALPHA_1_000_000                  HashMap  avgt    8  0.306 ± 0.018  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses  SIX_CHARS_ALPHA_10_000_000       OALinearProbingMap  avgt    8  0.312 ± 0.015  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses  SIX_CHARS_ALPHA_10_000_000  OALinearProbingRadarMap  avgt    8  0.314 ± 0.034  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses  SIX_CHARS_ALPHA_10_000_000           OARobinHoodMap  avgt    8  0.325 ± 0.069  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses  SIX_CHARS_ALPHA_10_000_000           OAPyPerturbMap  avgt    8  0.372 ± 0.038  us/op</t>
+  </si>
+  <si>
+    <t>AlphaNumericCodesReads.randomReadsWithMisses  SIX_CHARS_ALPHA_10_000_000                  HashMap  avgt    8  0.325 ± 0.017  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                         KEYS_STRING_1_000       OALinearProbingMap  avgt    8  0.041 ± 0.007  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                         KEYS_STRING_1_000  OALinearProbingRadarMap  avgt    8  0.043 ± 0.006  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                         KEYS_STRING_1_000           OARobinHoodMap  avgt    8  0.042 ± 0.003  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                         KEYS_STRING_1_000           OAPyPerturbMap  avgt    8  0.038 ± 0.002  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                         KEYS_STRING_1_000                  HashMap  avgt    8  0.032 ± 0.003  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                        KEYS_STRING_10_000       OALinearProbingMap  avgt    8  0.051 ± 0.009  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                        KEYS_STRING_10_000  OALinearProbingRadarMap  avgt    8  0.063 ± 0.005  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                        KEYS_STRING_10_000           OARobinHoodMap  avgt    8  0.053 ± 0.006  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                        KEYS_STRING_10_000           OAPyPerturbMap  avgt    8  0.059 ± 0.008  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                        KEYS_STRING_10_000                  HashMap  avgt    8  0.062 ± 0.006  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                       KEYS_STRING_100_000       OALinearProbingMap  avgt    8  0.154 ± 0.074  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                       KEYS_STRING_100_000  OALinearProbingRadarMap  avgt    8  0.203 ± 0.063  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                       KEYS_STRING_100_000           OARobinHoodMap  avgt    8  0.174 ± 0.035  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                       KEYS_STRING_100_000           OAPyPerturbMap  avgt    8  0.161 ± 0.023  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                       KEYS_STRING_100_000                  HashMap  avgt    8  0.199 ± 0.032  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                     KEYS_STRING_1_000_000       OALinearProbingMap  avgt    8  0.316 ± 0.071  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                     KEYS_STRING_1_000_000  OALinearProbingRadarMap  avgt    8  0.313 ± 0.018  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                     KEYS_STRING_1_000_000           OARobinHoodMap  avgt    8  0.289 ± 0.015  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                     KEYS_STRING_1_000_000           OAPyPerturbMap  avgt    8  0.334 ± 0.025  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                     KEYS_STRING_1_000_000                  HashMap  avgt    8  0.352 ± 0.021  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                    KEYS_STRING_10_000_000       OALinearProbingMap  avgt    8  0.391 ± 0.026  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                    KEYS_STRING_10_000_000  OALinearProbingRadarMap  avgt    8  0.391 ± 0.019  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                    KEYS_STRING_10_000_000           OARobinHoodMap  avgt    8  0.394 ± 0.020  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                    KEYS_STRING_10_000_000           OAPyPerturbMap  avgt    8  0.445 ± 0.026  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReads                    KEYS_STRING_10_000_000                  HashMap  avgt    8  0.544 ± 0.086  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses               KEYS_STRING_1_000       OALinearProbingMap  avgt    8  0.052 ± 0.009  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses               KEYS_STRING_1_000  OALinearProbingRadarMap  avgt    8  0.056 ± 0.006  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses               KEYS_STRING_1_000           OARobinHoodMap  avgt    8  0.051 ± 0.004  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses               KEYS_STRING_1_000           OAPyPerturbMap  avgt    8  0.053 ± 0.008  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses               KEYS_STRING_1_000                  HashMap  avgt    8  0.045 ± 0.003  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses              KEYS_STRING_10_000       OALinearProbingMap  avgt    8  0.064 ± 0.007  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses              KEYS_STRING_10_000  OALinearProbingRadarMap  avgt    8  0.077 ± 0.007  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses              KEYS_STRING_10_000           OARobinHoodMap  avgt    8  0.064 ± 0.010  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses              KEYS_STRING_10_000           OAPyPerturbMap  avgt    8  0.066 ± 0.005  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses              KEYS_STRING_10_000                  HashMap  avgt    8  0.070 ± 0.011  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses             KEYS_STRING_100_000       OALinearProbingMap  avgt    8  0.165 ± 0.027  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses             KEYS_STRING_100_000  OALinearProbingRadarMap  avgt    8  0.230 ± 0.055  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses             KEYS_STRING_100_000           OARobinHoodMap  avgt    8  0.205 ± 0.021  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses             KEYS_STRING_100_000           OAPyPerturbMap  avgt    8  0.205 ± 0.063  us/op</t>
+  </si>
+  <si>
+    <t>RandomStringsReads.randomReadsWithMisses             KEYS_STRING_100_000                  HashMap  avgt    8  0.201 ± 0.040  us/op</t>
   </si>
 </sst>
 </file>
@@ -828,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F26132-585A-C44C-BEC3-423FE5BFAC48}">
   <dimension ref="B4:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1093,472 +1101,489 @@
   <dimension ref="B5:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="164.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942C3A02-AFE1-504B-A318-CEAA70B832AE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>